--- a/data/ams_weekly_data/Tonor/business_report_week4.xlsx
+++ b/data/ams_weekly_data/Tonor/business_report_week4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 4\Tonor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\ams_weekly_data\Tonor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5848408B-159D-44E8-9725-57385723CB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B71ACC4-A926-467B-857D-DB71A9176952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAA79DAB-E94A-44C3-9E6D-E36496234DAC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>SKU</t>
   </si>
@@ -1223,9 +1223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B40163-EB1F-4798-9644-8E6505891356}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3004,6 +3006,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>53</v>
+      </c>
+      <c r="T26">
+        <v>68720.240000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27">
+        <v>44</v>
+      </c>
+      <c r="T27">
+        <v>59911.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28">
+        <v>21</v>
+      </c>
+      <c r="T28">
+        <v>37524.550000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>14522.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>14483.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>9691.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>9334.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>8594.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>8131.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>7816.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>5311.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>4786.4399999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>3643.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>2422.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
